--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20366" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60289" uniqueCount="911">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60289" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81638" uniqueCount="911">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31825,10 +31825,10 @@
         <v>89</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>89</v>
@@ -31837,7 +31837,7 @@
         <v>89</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>89</v>
@@ -31852,7 +31852,7 @@
         <v>89</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>89</v>
@@ -31897,7 +31897,7 @@
         <v>89</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="AH10" s="5" t="s">
         <v>89</v>
@@ -32274,7 +32274,7 @@
         <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>89</v>
@@ -32304,7 +32304,7 @@
         <v>89</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>89</v>
@@ -32328,7 +32328,7 @@
         <v>89</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>89</v>
@@ -32343,7 +32343,7 @@
         <v>89</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>89</v>
@@ -32364,7 +32364,7 @@
         <v>89</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>89</v>
@@ -32373,7 +32373,7 @@
         <v>89</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>89</v>
@@ -33556,7 +33556,7 @@
         <v>89</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>89</v>
@@ -33565,7 +33565,7 @@
         <v>89</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>89</v>
@@ -33574,25 +33574,25 @@
         <v>89</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>89</v>
@@ -33601,7 +33601,7 @@
         <v>89</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>89</v>
@@ -33613,7 +33613,7 @@
         <v>89</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>89</v>
@@ -33637,10 +33637,10 @@
         <v>89</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>89</v>
@@ -33649,10 +33649,10 @@
         <v>89</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26">
@@ -33660,7 +33660,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>89</v>
@@ -33678,7 +33678,7 @@
         <v>89</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>89</v>
@@ -33732,7 +33732,7 @@
         <v>89</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>89</v>
@@ -33750,7 +33750,7 @@
         <v>89</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>89</v>
@@ -33762,7 +33762,7 @@
         <v>89</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="AK26" s="5" t="s">
         <v>89</v>
@@ -33892,73 +33892,73 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>89</v>
@@ -33967,37 +33967,37 @@
         <v>89</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>89</v>
@@ -35168,115 +35168,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
     </row>
     <row r="40">
@@ -35284,115 +35284,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41">
@@ -35400,115 +35400,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>120</v>
+        <v>271</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>120</v>
+        <v>354</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>120</v>
+        <v>393</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>120</v>
+        <v>424</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>120</v>
+        <v>452</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>120</v>
+        <v>468</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>120</v>
+        <v>497</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>120</v>
+        <v>522</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>120</v>
+        <v>546</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>120</v>
+        <v>576</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>120</v>
+        <v>589</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>120</v>
+        <v>614</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>120</v>
+        <v>637</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>120</v>
+        <v>654</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>120</v>
+        <v>679</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>120</v>
+        <v>726</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>120</v>
+        <v>754</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>120</v>
+        <v>785</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>120</v>
+        <v>815</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>120</v>
+        <v>843</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>120</v>
+        <v>872</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>120</v>
+        <v>901</v>
       </c>
     </row>
     <row r="42">
